--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="UserDetails" sheetId="8" r:id="rId2"/>
     <sheet name="UsersPage" sheetId="9" r:id="rId3"/>
-    <sheet name="AccountsPage" sheetId="2" r:id="rId4"/>
-    <sheet name="ReportsPage" sheetId="3" r:id="rId5"/>
-    <sheet name="StorePage" sheetId="4" r:id="rId6"/>
-    <sheet name="SummarizedReportPage" sheetId="5" r:id="rId7"/>
-    <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId8"/>
+    <sheet name="MultiLanguageEnglish" sheetId="10" r:id="rId4"/>
+    <sheet name="MultiLanguageFrench" sheetId="11" r:id="rId5"/>
+    <sheet name="AccountsPage" sheetId="2" r:id="rId6"/>
+    <sheet name="ReportsPage" sheetId="3" r:id="rId7"/>
+    <sheet name="StorePage" sheetId="4" r:id="rId8"/>
+    <sheet name="SummarizedReportPage" sheetId="5" r:id="rId9"/>
+    <sheet name="RolesPage" sheetId="12" r:id="rId10"/>
+    <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="468">
   <si>
     <t>Password</t>
   </si>
@@ -350,9 +353,6 @@
   </si>
   <si>
     <t>Include :None</t>
-  </si>
-  <si>
-    <t>Format :Minutes (min:sec)</t>
   </si>
   <si>
     <t>March Weekly Report</t>
@@ -504,9 +504,6 @@
   </si>
   <si>
     <t>April</t>
-  </si>
-  <si>
-    <t>04/02/2018</t>
   </si>
   <si>
     <t>toDate8</t>
@@ -782,9 +779,6 @@
   </si>
   <si>
     <t>confirmationText</t>
-  </si>
-  <si>
-    <t>Please check your email. Your Report has been sent to .</t>
   </si>
   <si>
     <t>Franchise.johnsmith@gmail.com</t>
@@ -883,9 +877,6 @@
     <t>reportendTime1</t>
   </si>
   <si>
-    <t>Groups,Stores, Menu 1,Menu Board, Greet,Menu 2,Cashier,Presenter,Service, Lane Queue, Lane Total,Lane Total 2,Total Cars</t>
-  </si>
-  <si>
     <t>Total Week</t>
   </si>
   <si>
@@ -911,10 +902,557 @@
     <t>03/01-Daypart1</t>
   </si>
   <si>
-    <t>Mar 1, 2018 CLOSE</t>
-  </si>
-  <si>
     <t>Mar 1, 2018 OPEN</t>
+  </si>
+  <si>
+    <t>Groups,Stores,Menu Board, Greet,Cashier,Presenter,Service, Lane Queue, Lane Total,Lane Total 2,Total Cars</t>
+  </si>
+  <si>
+    <t>Groups,Stores,Menu Board, Greet,Service, Lane Queue, Lane Total,Total Cars</t>
+  </si>
+  <si>
+    <t>ReportsColumnHeader1</t>
+  </si>
+  <si>
+    <t>errorMsgAdvancedOptionSelection</t>
+  </si>
+  <si>
+    <t>Date range invalid. For Advanced Options Reports select any 3 month period.</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Format :Seconds (sec)</t>
+  </si>
+  <si>
+    <t>UAT_Username</t>
+  </si>
+  <si>
+    <t>UAT_Password</t>
+  </si>
+  <si>
+    <t>swtest01@hme.com</t>
+  </si>
+  <si>
+    <t>SWTest01</t>
+  </si>
+  <si>
+    <t>welcomeMsg</t>
+  </si>
+  <si>
+    <t>Welcome to HME CLOUD</t>
+  </si>
+  <si>
+    <t>Please check your email. Your Report has been sent to nous-abhradipr@HME.COM.</t>
+  </si>
+  <si>
+    <t>userSearchText2</t>
+  </si>
+  <si>
+    <t>viewAsUserText</t>
+  </si>
+  <si>
+    <t>View as User
+selvendrank@nousinfo.com</t>
+  </si>
+  <si>
+    <t>dashboardHeadingText</t>
+  </si>
+  <si>
+    <t>rollingHourHeadingText</t>
+  </si>
+  <si>
+    <t>hourHeadingText</t>
+  </si>
+  <si>
+    <t>dayPartText</t>
+  </si>
+  <si>
+    <t>weekText</t>
+  </si>
+  <si>
+    <t>monthText</t>
+  </si>
+  <si>
+    <t>HME CLOUD DASHBOARD</t>
+  </si>
+  <si>
+    <t>Current Rolling Hour</t>
+  </si>
+  <si>
+    <t>Current Hour</t>
+  </si>
+  <si>
+    <t>Current Daypart</t>
+  </si>
+  <si>
+    <t>Current Week</t>
+  </si>
+  <si>
+    <t>Current Month</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Nomd’utilisateur</t>
+  </si>
+  <si>
+    <t>Motdepasse</t>
+  </si>
+  <si>
+    <t>BienvenueàHMECLOUD</t>
+  </si>
+  <si>
+    <t>Bienvenue</t>
+  </si>
+  <si>
+    <t>TableaudebordZOOM</t>
+  </si>
+  <si>
+    <t>Rapports</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Utilisateurs</t>
+  </si>
+  <si>
+    <t>Moncompte</t>
+  </si>
+  <si>
+    <t>GérerlesgroupesLeaderboard</t>
+  </si>
+  <si>
+    <t>gérerlesgroupesderapports</t>
+  </si>
+  <si>
+    <t>Ajouterunutilisateur</t>
+  </si>
+  <si>
+    <t>Informationsurl’utilisateur</t>
+  </si>
+  <si>
+    <t>Gestiondugroupedereporting</t>
+  </si>
+  <si>
+    <t>Détailsdugroupederapports</t>
+  </si>
+  <si>
+    <t>Récapitulatifs</t>
+  </si>
+  <si>
+    <t>Ajouterunrôle</t>
+  </si>
+  <si>
+    <t>TABLEAUDEBORDHMECLOUD</t>
+  </si>
+  <si>
+    <t>Totalallée</t>
+  </si>
+  <si>
+    <t>Totaldel'allée2</t>
+  </si>
+  <si>
+    <t>Contratd’utilisation</t>
+  </si>
+  <si>
+    <t>Politiquesurlaprotectiondesrenseignementspersonnels</t>
+  </si>
+  <si>
+    <t>Questionsfréquemmentposées</t>
+  </si>
+  <si>
+    <t>Vousdevezindiquerunnomderôle</t>
+  </si>
+  <si>
+    <t>Confirmerpoursupprimer</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to HME CLOUD, </t>
+  </si>
+  <si>
+    <t>WELCOME</t>
+  </si>
+  <si>
+    <t>ZOOM DASHBOARD</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>My account</t>
+  </si>
+  <si>
+    <t>Add a User</t>
+  </si>
+  <si>
+    <t>User Information</t>
+  </si>
+  <si>
+    <t>Reporting Group Details</t>
+  </si>
+  <si>
+    <t>Add a Role</t>
+  </si>
+  <si>
+    <t>Lane Total</t>
+  </si>
+  <si>
+    <t>Lane Total 2</t>
+  </si>
+  <si>
+    <t>User Agreement</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions</t>
+  </si>
+  <si>
+    <t>Role name may not be blank.</t>
+  </si>
+  <si>
+    <t>Confirm to Delete</t>
+  </si>
+  <si>
+    <t>WelcomeMessage</t>
+  </si>
+  <si>
+    <t>WelcomeLink</t>
+  </si>
+  <si>
+    <t>ZOOMDashboard</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>MyAccount</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>ManageLeaderBoardGroups</t>
+  </si>
+  <si>
+    <t>ManageReportGroups</t>
+  </si>
+  <si>
+    <t>AddaUser</t>
+  </si>
+  <si>
+    <t>UserInformation</t>
+  </si>
+  <si>
+    <t>ReportingGroupManagement</t>
+  </si>
+  <si>
+    <t>ReportingGroupDetails</t>
+  </si>
+  <si>
+    <t>SummaryReports</t>
+  </si>
+  <si>
+    <t>AddaRole</t>
+  </si>
+  <si>
+    <t>HMECloudDashboard</t>
+  </si>
+  <si>
+    <t>LaneTotal</t>
+  </si>
+  <si>
+    <t>LaneTotal2</t>
+  </si>
+  <si>
+    <t>UserAgreement</t>
+  </si>
+  <si>
+    <t>PrivacyPolicy</t>
+  </si>
+  <si>
+    <t>FrequentlyAskedQuestions</t>
+  </si>
+  <si>
+    <t>Rolenamemaynotbeblank</t>
+  </si>
+  <si>
+    <t>ConfirmtoDelete</t>
+  </si>
+  <si>
+    <t>StoreHeader</t>
+  </si>
+  <si>
+    <t>ReportingGroupManagementHeader</t>
+  </si>
+  <si>
+    <t>ReportingGroupDetailsHeader</t>
+  </si>
+  <si>
+    <t>SummaryReportHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bienvenue à HME CLOUD </t>
+  </si>
+  <si>
+    <t>BIENVENUE</t>
+  </si>
+  <si>
+    <t>TABLEAU DE BORD ZOOM</t>
+  </si>
+  <si>
+    <t>RAPPORTS</t>
+  </si>
+  <si>
+    <t>MON COMPTE</t>
+  </si>
+  <si>
+    <t>PARAMÈTRES</t>
+  </si>
+  <si>
+    <t>Mon compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gérer les groupes Leaderboard </t>
+  </si>
+  <si>
+    <t>gérer les groupes de rapports</t>
+  </si>
+  <si>
+    <t>Ajouter un utilisateur</t>
+  </si>
+  <si>
+    <t>Information sur l’utilisateur</t>
+  </si>
+  <si>
+    <t>Gestion du groupe de reporting</t>
+  </si>
+  <si>
+    <t>Détails du groupe de rapports</t>
+  </si>
+  <si>
+    <t>Ajouter un rôle</t>
+  </si>
+  <si>
+    <t>TABLEAU DE BORD HME CLOUD</t>
+  </si>
+  <si>
+    <t>Total allée</t>
+  </si>
+  <si>
+    <t>Total de l'allée 2</t>
+  </si>
+  <si>
+    <t>Contrat d’utilisation</t>
+  </si>
+  <si>
+    <t>Politique sur la protection des renseignements personnels</t>
+  </si>
+  <si>
+    <t>Questions fréquemment posées</t>
+  </si>
+  <si>
+    <t>Vous devez indiquer un nom de rôle</t>
+  </si>
+  <si>
+    <t>Confirmer pour supprimer</t>
+  </si>
+  <si>
+    <t>Usernamefor_csv</t>
+  </si>
+  <si>
+    <t>password_csv</t>
+  </si>
+  <si>
+    <t>toDate10</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>EndDate9</t>
+  </si>
+  <si>
+    <t>reportstartTime2</t>
+  </si>
+  <si>
+    <t>reportendTime2</t>
+  </si>
+  <si>
+    <t>MAR 5, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>Groups, Stores, Menu Board, Greet, Service, Lane Queue, Lane Total, Total Cars</t>
+  </si>
+  <si>
+    <t>storerowHeader1</t>
+  </si>
+  <si>
+    <t>firstDateRange1</t>
+  </si>
+  <si>
+    <t>MAR 1, 2018 OPEN - MAR 1, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>secDateRange</t>
+  </si>
+  <si>
+    <t>MAR 2, 2018 OPEN - MAR 2, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>thirdDateRange</t>
+  </si>
+  <si>
+    <t>MAR 3, 2018 OPEN - MAR 3, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>fourthDateRange</t>
+  </si>
+  <si>
+    <t>MAR 4, 2018 OPEN - MAR 4, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>startText</t>
+  </si>
+  <si>
+    <t>endText</t>
+  </si>
+  <si>
+    <t>Mar 4, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>ReportsColumnHeader4</t>
+  </si>
+  <si>
+    <t>Day, Menu Board, Greet, Service, Lane Queue, Lane Total, Total Cars</t>
+  </si>
+  <si>
+    <t>storeReportDate</t>
+  </si>
+  <si>
+    <t>Enddate_goalstatics</t>
+  </si>
+  <si>
+    <t>todate_Enddate_goalstatics</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 255, 1)</t>
+  </si>
+  <si>
+    <t>rgba(255, 192, 203, 1)</t>
+  </si>
+  <si>
+    <t>rgba(0, 128, 0, 1)</t>
+  </si>
+  <si>
+    <t>goalBText</t>
+  </si>
+  <si>
+    <t>1:00,0:10,1:00,0:30,2:30</t>
+  </si>
+  <si>
+    <t>goalB</t>
+  </si>
+  <si>
+    <t>goalAText</t>
+  </si>
+  <si>
+    <t>Goal B</t>
+  </si>
+  <si>
+    <t>goalA</t>
+  </si>
+  <si>
+    <t>Goal A</t>
+  </si>
+  <si>
+    <t>goalReportHeader</t>
+  </si>
+  <si>
+    <t>0:30, 0:5, 0:30, 0:30, 1:30</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>&lt; Goal A (min:sec),&lt; Goal B (min:sec),&lt; Goal C (min:sec),&lt; Goal D (min:sec),&gt; Goal D (min:sec)</t>
+  </si>
+  <si>
+    <t>goalC</t>
+  </si>
+  <si>
+    <t>goalD</t>
+  </si>
+  <si>
+    <t>goalE</t>
+  </si>
+  <si>
+    <t>Goal C</t>
+  </si>
+  <si>
+    <t>Goal D</t>
+  </si>
+  <si>
+    <t>Goal E</t>
+  </si>
+  <si>
+    <t>goalCText</t>
+  </si>
+  <si>
+    <t>goalDText</t>
+  </si>
+  <si>
+    <t>1:30,0:15,1:30,2:00,5:00</t>
+  </si>
+  <si>
+    <t>2:00,0:20,2:00,3:00,7:00</t>
+  </si>
+  <si>
+    <t>permissionText</t>
+  </si>
+  <si>
+    <t>Company Admin</t>
+  </si>
+  <si>
+    <t>Permissions</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +1509,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -1005,6 +1555,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1387,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,11 +1962,16 @@
     <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>
     <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1439,26 +1997,43 @@
         <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1484,32 +2059,281 @@
         <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="O2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="S2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1528,12 +2352,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,46 +2379,496 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>354</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>355</v>
+      </c>
+      <c r="T2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U2" t="s">
+        <v>356</v>
+      </c>
+      <c r="V2" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" t="s">
+        <v>358</v>
+      </c>
+      <c r="X2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>398</v>
+      </c>
+      <c r="N2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" t="s">
+        <v>402</v>
+      </c>
+      <c r="S2" t="s">
+        <v>403</v>
+      </c>
+      <c r="T2" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" t="s">
+        <v>405</v>
+      </c>
+      <c r="V2" t="s">
+        <v>406</v>
+      </c>
+      <c r="W2" t="s">
+        <v>407</v>
+      </c>
+      <c r="X2" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1684,12 +2958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH2"/>
+  <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="CS34" sqref="CS34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +2996,7 @@
     <col min="34" max="34" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="123.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="54.42578125" customWidth="1"/>
     <col min="39" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="76" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1770,9 +3044,17 @@
     <col min="84" max="84" width="51" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="26" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
@@ -1819,220 +3101,247 @@
         <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AN1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="AW1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BF1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="BH1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BN1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="BY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>272</v>
+      <c r="CI1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2052,10 +3361,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2067,10 +3376,10 @@
         <v>107</v>
       </c>
       <c r="L2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>55</v>
@@ -2079,91 +3388,91 @@
         <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
         <v>116</v>
       </c>
-      <c r="R2" t="s">
-        <v>117</v>
-      </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" t="s">
         <v>122</v>
-      </c>
-      <c r="U2" t="s">
-        <v>123</v>
       </c>
       <c r="V2">
         <v>11</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y2" s="5">
         <v>1</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="AO2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS2">
         <v>4</v>
@@ -2172,70 +3481,70 @@
         <v>48</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AY2">
         <v>10</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="BB2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BC2">
         <v>13</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF2" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="BG2">
         <v>16</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BK2">
         <v>17</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BN2" s="5">
         <v>7</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BQ2">
         <v>1</v>
@@ -2244,52 +3553,79 @@
         <v>13</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BU2" s="9">
         <v>2</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BX2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BY2" s="9">
         <v>23</v>
       </c>
       <c r="BZ2" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CA2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CB2">
         <v>15</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CD2">
         <v>10</v>
       </c>
       <c r="CE2" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="CG2">
         <v>2</v>
       </c>
       <c r="CH2" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK2" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CM2">
+        <v>8</v>
+      </c>
+      <c r="CN2" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="CO2" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="CP2" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="CQ2" s="10" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2319,11 +3655,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2343,10 +3679,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2360,10 +3696,10 @@
         <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2381,12 +3717,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,9 +3745,24 @@
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" customWidth="1"/>
+    <col min="37" max="37" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="84.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,283 +3794,226 @@
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>278</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U2" t="s">
+        <v>419</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s">
+        <v>422</v>
+      </c>
+      <c r="X2" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA2" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>287</v>
+      <c r="AB2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" t="s">
-        <v>169</v>
-      </c>
-      <c r="V2" t="s">
-        <v>170</v>
-      </c>
-      <c r="W2" t="s">
-        <v>171</v>
-      </c>
-      <c r="X2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>